--- a/excel_package/dorong.xlsx
+++ b/excel_package/dorong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StockExcel\excel_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomerar\PycharmProjects\StockExcel\excel_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96ECB5A8-000C-4C5F-9D6D-2A5A66E50165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1793704-CC6C-43E0-A570-0C47108A47FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33375" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{9B518DE6-C971-48DE-A367-F9AAD175BEEE}"/>
+    <workbookView xWindow="-23685" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{A5F0C846-897F-43A1-AB13-8AE9074CC395}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100586D6-303F-4E8C-8BAF-A6F30EF51FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7416F4-EF63-4DA1-9188-C470B648079D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/excel_package/dorong.xlsx
+++ b/excel_package/dorong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomerar\PycharmProjects\StockExcel\excel_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StockExcel\excel_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1793704-CC6C-43E0-A570-0C47108A47FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A811EA6F-2A5B-4A7A-88F5-539ABA7EB4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23685" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{A5F0C846-897F-43A1-AB13-8AE9074CC395}"/>
+    <workbookView xWindow="35970" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{ABA5C24E-E14C-40EF-A749-FAC28FB03E93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7416F4-EF63-4DA1-9188-C470B648079D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB96215F-6345-4C0F-A848-CFCE73901A5A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/excel_package/dorong.xlsx
+++ b/excel_package/dorong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StockExcel\excel_package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomerar\PycharmProjects\StockExcel\excel_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A811EA6F-2A5B-4A7A-88F5-539ABA7EB4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8BB933-5A8E-4649-AE85-B847FB0C6907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{ABA5C24E-E14C-40EF-A749-FAC28FB03E93}"/>
+    <workbookView xWindow="-23685" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{B43E839F-B7DC-464D-B680-D1277BFAB8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB96215F-6345-4C0F-A848-CFCE73901A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79018921-14B6-4BE6-9663-EA07109B6732}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
